--- a/数据整理/stocks/A股/上证主板/603300-华铁应急.xlsx
+++ b/数据整理/stocks/A股/上证主板/603300-华铁应急.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -37,10 +43,16 @@
     <t>大成国企改革灵活配置混合</t>
   </si>
   <si>
+    <t>0.67</t>
+  </si>
+  <si>
     <t>91.27</t>
   </si>
   <si>
     <t>8.41</t>
+  </si>
+  <si>
+    <t>0.0563</t>
   </si>
 </sst>
 </file>
@@ -398,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,24 +432,36 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603300-华铁应急.xlsx
+++ b/数据整理/stocks/A股/上证主板/603300-华铁应急.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>002258</t>
-  </si>
-  <si>
-    <t>大成国企改革灵活配置混合</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>91.27</t>
-  </si>
-  <si>
-    <t>8.41</t>
-  </si>
-  <si>
-    <t>0.0563</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002624</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4627</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270025</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6017</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000747</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发逆向策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发优企精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>960001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603300-华铁应急.xlsx
+++ b/数据整理/stocks/A股/上证主板/603300-华铁应急.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -897,4 +898,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>71.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603300-华铁应急.xlsx
+++ b/数据整理/stocks/A股/上证主板/603300-华铁应急.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -992,4 +993,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603300-华铁应急.xlsx
+++ b/数据整理/stocks/A股/上证主板/603300-华铁应急.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1001,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1012,17 +1013,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1032,14 +1053,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0791</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1048,14 +1091,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.34</v>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8925</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1064,13 +1129,629 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7198</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1689</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0139</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0139</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8694</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6218</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4521</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3610</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3393</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.96</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603300-华铁应急.xlsx
+++ b/数据整理/stocks/A股/上证主板/603300-华铁应急.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1666,7 +1667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1677,17 +1678,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1697,14 +1718,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.96</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.2677</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1713,14 +1756,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06</v>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>67.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5301</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1729,14 +1794,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6981</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.34</v>
       </c>
     </row>
     <row r="5">
@@ -1745,13 +1832,873 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>63.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3753</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0301</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7658</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7042</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5483</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4983</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4738</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2925</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2842</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>16.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.96</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603300-华铁应急.xlsx
+++ b/数据整理/stocks/A股/上证主板/603300-华铁应急.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2597,7 +2598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2608,17 +2609,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2628,14 +2649,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>16.39</v>
+          <t>090018</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成新锐产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>103.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1504</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2644,14 +2687,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.96</v>
+          <t>001300</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3669</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2660,14 +2725,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.06</v>
+          <t>013435</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5956</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2676,14 +2763,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.34</v>
+          <t>001301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成睿景灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0373</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2692,13 +2801,1231 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002258</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5964</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5174</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5174</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010826</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5136</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2755</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013436</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大成景气精选六个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010827</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成产业趋势混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014653</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014863</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014654</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001664</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>平安鑫安混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003626</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007049</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安鑫安混合E</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006433</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安鑫利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>28.05</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001665</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>平安鑫安混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>32.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>33</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16.39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.96</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603300-华铁应急.xlsx
+++ b/数据整理/stocks/A股/上证主板/603300-华铁应急.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>13.92</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D3" t="n">
-        <v>16.39</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>14.96</v>
+        <v>16.39</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06</v>
+        <v>14.96</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>2.34</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -583,6 +600,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9505</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5033</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4701</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3072</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2792</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2100</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013561</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融匠心优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1855</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010532</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014653</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009135</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011192</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010533</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009136</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013562</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融匠心优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014654</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014863</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>20.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011193</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1892,7 +3067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2822,7 +3997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3486,7 +4661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3580,7 +4755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3940,7 +5115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603300-华铁应急.xlsx
+++ b/数据整理/stocks/A股/上证主板/603300-华铁应急.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>3.7</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>13.92</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D4" t="n">
-        <v>16.39</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>14.96</v>
+        <v>16.39</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06</v>
+        <v>14.96</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>2.34</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -600,6 +617,936 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011790</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8372</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5515</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5081</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010532</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1838</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014653</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009135</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010533</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发恒信一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011192</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>34.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009136</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发恒隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001420</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方大数据300指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014654</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001426</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方大数据300指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011193</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发恒荣三个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>34.93</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014863</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1757,7 +2704,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3067,7 +4014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3997,7 +4944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4661,7 +5608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4755,7 +5702,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5115,7 +6062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
